--- a/Interview Schedule.xlsx
+++ b/Interview Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>S.Billemont</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Z.Zhou</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Name</t>
@@ -393,7 +390,7 @@
   <dimension ref="B1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B1" sqref="B1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -405,89 +402,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="2">
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="2">
-        <v>0.59375</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="2">
-        <v>0.60416666666666663</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="2">
-        <v>0.61458333333333337</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="2">
-        <v>0.625</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="2">
-        <v>0.63541666666666663</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="2">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="2">
-        <v>0.65625</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="2">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="2">
-        <v>0.67708333333333337</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
